--- a/doc/KR.xlsx
+++ b/doc/KR.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="23">
   <si>
     <t>演员</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -78,6 +78,38 @@
   </si>
   <si>
     <t>女子校生 女上位</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>kr3.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>YOUPORN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>越南门事件极品单身母亲LngMinhPhng与飞行员男友性爱视频外流最全合集</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>人妻 后入 颜射</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>kr4.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>学妹到我家玩我把裤子脱了她就上来帮我舔真听话逼逼又粉叫的也好听</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>丝袜 女子校生 女上位 颜射</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -539,7 +571,7 @@
   <dimension ref="A1:H140"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" thickTop="1" thickBottom="1" x14ac:dyDescent="0.25"/>
@@ -621,24 +653,48 @@
       </c>
       <c r="H3" s="2"/>
     </row>
-    <row r="4" spans="1:8" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="8"/>
-      <c r="B4" s="8"/>
-      <c r="C4" s="8"/>
-      <c r="D4" s="8"/>
-      <c r="E4" s="8"/>
+    <row r="4" spans="1:8" ht="30" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="8">
+        <v>3</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>18</v>
+      </c>
       <c r="F4" s="8"/>
-      <c r="G4" s="9"/>
+      <c r="G4" s="9" t="s">
+        <v>19</v>
+      </c>
       <c r="H4" s="2"/>
     </row>
     <row r="5" spans="1:8" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="8"/>
-      <c r="B5" s="10"/>
-      <c r="C5" s="8"/>
-      <c r="D5" s="10"/>
-      <c r="E5" s="10"/>
+      <c r="A5" s="8">
+        <v>4</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="E5" s="10" t="s">
+        <v>21</v>
+      </c>
       <c r="F5" s="8"/>
-      <c r="G5" s="11"/>
+      <c r="G5" s="11" t="s">
+        <v>22</v>
+      </c>
       <c r="H5" s="2"/>
     </row>
     <row r="6" spans="1:8" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
